--- a/StressTest/ECCUBE3負荷テスト.xlsx
+++ b/StressTest/ECCUBE3負荷テスト.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7740"/>
@@ -12,12 +12,12 @@
     <sheet name="（例）150924" sheetId="8" r:id="rId3"/>
     <sheet name="（テンプレート）yymmdd" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>テスト環境</t>
     <phoneticPr fontId="1"/>
@@ -486,10 +486,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>ロックオン</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>結合試験項目書</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -506,16 +502,24 @@
     <t>Ver 01.00</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>EC-CUBE</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>EC-CUBE</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +832,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -864,22 +875,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
@@ -909,11 +908,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,6 +932,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1317,7 +1324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1359,7 +1366,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,7 +1401,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1607,7 +1614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="9" customWidth="1"/>
     <col min="2" max="42" width="3.375" style="9"/>
@@ -1867,350 +1874,350 @@
     <col min="16172" max="16384" width="3.375" style="9"/>
   </cols>
   <sheetData>
-    <row r="9" spans="8:36" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="21"/>
-    </row>
-    <row r="11" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="24"/>
-    </row>
-    <row r="12" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="24"/>
-    </row>
-    <row r="13" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="24"/>
-    </row>
-    <row r="14" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="24"/>
-    </row>
-    <row r="15" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="24"/>
-    </row>
-    <row r="16" spans="8:36" ht="17.100000000000001" customHeight="1">
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="24"/>
-    </row>
-    <row r="17" spans="8:42" ht="17.100000000000001" customHeight="1">
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="23"/>
-      <c r="AI17" s="23"/>
-      <c r="AJ17" s="24"/>
-    </row>
-    <row r="18" spans="8:42" ht="17.100000000000001" customHeight="1">
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="24"/>
-    </row>
-    <row r="19" spans="8:42" ht="17.100000000000001" customHeight="1">
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="27"/>
-    </row>
-    <row r="26" spans="8:42" ht="17.100000000000001" customHeight="1">
-      <c r="W26" s="28" t="s">
+    <row r="10" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="23"/>
+      <c r="AJ10" s="24"/>
+    </row>
+    <row r="11" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="27"/>
+    </row>
+    <row r="12" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="27"/>
+    </row>
+    <row r="13" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="27"/>
+    </row>
+    <row r="14" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="27"/>
+    </row>
+    <row r="15" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="27"/>
+    </row>
+    <row r="16" spans="8:36" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="27"/>
+    </row>
+    <row r="17" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="27"/>
+    </row>
+    <row r="18" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="27"/>
+    </row>
+    <row r="19" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="30"/>
+    </row>
+    <row r="26" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="28" t="s">
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="28" t="s">
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="28" t="s">
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="AM26" s="29"/>
-      <c r="AN26" s="29"/>
-      <c r="AO26" s="29"/>
-      <c r="AP26" s="30"/>
-    </row>
-    <row r="27" spans="8:42" ht="17.100000000000001" customHeight="1">
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="33"/>
+    </row>
+    <row r="27" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W27" s="10"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
@@ -2232,7 +2239,7 @@
       <c r="AO27" s="14"/>
       <c r="AP27" s="15"/>
     </row>
-    <row r="28" spans="8:42" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W28" s="10"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
@@ -2254,7 +2261,7 @@
       <c r="AO28" s="11"/>
       <c r="AP28" s="12"/>
     </row>
-    <row r="29" spans="8:42" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W29" s="10"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
@@ -2276,7 +2283,7 @@
       <c r="AO29" s="11"/>
       <c r="AP29" s="12"/>
     </row>
-    <row r="30" spans="8:42" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W30" s="10"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
@@ -2298,7 +2305,7 @@
       <c r="AO30" s="11"/>
       <c r="AP30" s="12"/>
     </row>
-    <row r="31" spans="8:42" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="8:42" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W31" s="16"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
@@ -2348,7 +2355,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" style="9" customWidth="1"/>
     <col min="2" max="42" width="3.375" style="9"/>
@@ -2608,117 +2615,117 @@
     <col min="16172" max="16384" width="3.375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="16.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="45" t="s">
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="44"/>
-    </row>
-    <row r="2" spans="1:43" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="37" t="s">
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="43"/>
+    </row>
+    <row r="2" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="39">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="38">
         <v>42286</v>
       </c>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="41"/>
-    </row>
-    <row r="3" spans="1:43" ht="17.100000000000001" customHeight="1">
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40"/>
+    </row>
+    <row r="3" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2763,1240 +2770,1240 @@
       <c r="AP3" s="11"/>
       <c r="AQ3" s="12"/>
     </row>
-    <row r="4" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="35" t="s">
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
       <c r="AQ4" s="12"/>
     </row>
-    <row r="5" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
-      <c r="B5" s="31">
+      <c r="B5" s="47">
         <v>42286</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
       <c r="AQ5" s="12"/>
     </row>
-    <row r="6" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
       <c r="AQ6" s="12"/>
     </row>
-    <row r="7" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
       <c r="AQ7" s="12"/>
     </row>
-    <row r="8" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
       <c r="AQ8" s="12"/>
     </row>
-    <row r="9" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
       <c r="AQ9" s="12"/>
     </row>
-    <row r="10" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
       <c r="AQ10" s="12"/>
     </row>
-    <row r="11" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
       <c r="AQ11" s="12"/>
     </row>
-    <row r="12" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
       <c r="AQ12" s="12"/>
     </row>
-    <row r="13" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
       <c r="AQ13" s="12"/>
     </row>
-    <row r="14" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
       <c r="AQ14" s="12"/>
     </row>
-    <row r="15" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
       <c r="AQ15" s="12"/>
     </row>
-    <row r="16" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
       <c r="AQ16" s="12"/>
     </row>
-    <row r="17" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
       <c r="AQ17" s="12"/>
     </row>
-    <row r="18" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
       <c r="AQ18" s="12"/>
     </row>
-    <row r="19" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
       <c r="AQ19" s="12"/>
     </row>
-    <row r="20" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
       <c r="AQ20" s="12"/>
     </row>
-    <row r="21" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
       <c r="AQ21" s="12"/>
     </row>
-    <row r="22" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
       <c r="AQ22" s="12"/>
     </row>
-    <row r="23" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="48"/>
+      <c r="AK23" s="48"/>
+      <c r="AL23" s="48"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="48"/>
+      <c r="AO23" s="48"/>
+      <c r="AP23" s="48"/>
       <c r="AQ23" s="12"/>
     </row>
-    <row r="24" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="48"/>
+      <c r="AC24" s="48"/>
+      <c r="AD24" s="48"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="48"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="48"/>
+      <c r="AJ24" s="48"/>
+      <c r="AK24" s="48"/>
+      <c r="AL24" s="48"/>
+      <c r="AM24" s="48"/>
+      <c r="AN24" s="48"/>
+      <c r="AO24" s="48"/>
+      <c r="AP24" s="48"/>
       <c r="AQ24" s="12"/>
     </row>
-    <row r="25" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
+      <c r="AH25" s="48"/>
+      <c r="AI25" s="48"/>
+      <c r="AJ25" s="48"/>
+      <c r="AK25" s="48"/>
+      <c r="AL25" s="48"/>
+      <c r="AM25" s="48"/>
+      <c r="AN25" s="48"/>
+      <c r="AO25" s="48"/>
+      <c r="AP25" s="48"/>
       <c r="AQ25" s="12"/>
     </row>
-    <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
+      <c r="AJ26" s="48"/>
+      <c r="AK26" s="48"/>
+      <c r="AL26" s="48"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="48"/>
+      <c r="AO26" s="48"/>
+      <c r="AP26" s="48"/>
       <c r="AQ26" s="12"/>
     </row>
-    <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="48"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="48"/>
+      <c r="AE27" s="48"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="48"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
+      <c r="AJ27" s="48"/>
+      <c r="AK27" s="48"/>
+      <c r="AL27" s="48"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="48"/>
+      <c r="AO27" s="48"/>
+      <c r="AP27" s="48"/>
       <c r="AQ27" s="12"/>
     </row>
-    <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="48"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
+      <c r="AM28" s="48"/>
+      <c r="AN28" s="48"/>
+      <c r="AO28" s="48"/>
+      <c r="AP28" s="48"/>
       <c r="AQ28" s="12"/>
     </row>
-    <row r="29" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="48"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="48"/>
+      <c r="AJ29" s="48"/>
+      <c r="AK29" s="48"/>
+      <c r="AL29" s="48"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="48"/>
+      <c r="AO29" s="48"/>
+      <c r="AP29" s="48"/>
       <c r="AQ29" s="12"/>
     </row>
-    <row r="30" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="48"/>
+      <c r="AP30" s="48"/>
       <c r="AQ30" s="12"/>
     </row>
-    <row r="31" spans="1:43" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:43" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -4043,138 +4050,6 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:N1"/>
-    <mergeCell ref="O1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:AG4"/>
-    <mergeCell ref="AH4:AP4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:AG5"/>
-    <mergeCell ref="AH5:AP5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="O6:AG6"/>
-    <mergeCell ref="AH6:AP6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:AG7"/>
-    <mergeCell ref="AH7:AP7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="O8:AG8"/>
-    <mergeCell ref="AH8:AP8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:AG9"/>
-    <mergeCell ref="AH9:AP9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="O10:AG10"/>
-    <mergeCell ref="AH10:AP10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:AG11"/>
-    <mergeCell ref="AH11:AP11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:AG12"/>
-    <mergeCell ref="AH12:AP12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:AG13"/>
-    <mergeCell ref="AH13:AP13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="O14:AG14"/>
-    <mergeCell ref="AH14:AP14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="O15:AG15"/>
-    <mergeCell ref="AH15:AP15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="O16:AG16"/>
-    <mergeCell ref="AH16:AP16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="O17:AG17"/>
-    <mergeCell ref="AH17:AP17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:AG18"/>
-    <mergeCell ref="AH18:AP18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:AG19"/>
-    <mergeCell ref="AH19:AP19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="O20:AG20"/>
-    <mergeCell ref="AH20:AP20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:AG21"/>
-    <mergeCell ref="AH21:AP21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="O22:AG22"/>
-    <mergeCell ref="AH22:AP22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O23:AG23"/>
-    <mergeCell ref="AH23:AP23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="O24:AG24"/>
-    <mergeCell ref="AH24:AP24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="O25:AG25"/>
-    <mergeCell ref="AH25:AP25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="O26:AG26"/>
-    <mergeCell ref="AH26:AP26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="O27:AG27"/>
-    <mergeCell ref="AH27:AP27"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:N30"/>
@@ -4190,6 +4065,138 @@
     <mergeCell ref="I29:N29"/>
     <mergeCell ref="O29:AG29"/>
     <mergeCell ref="AH29:AP29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="O26:AG26"/>
+    <mergeCell ref="AH26:AP26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:AG27"/>
+    <mergeCell ref="AH27:AP27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="O24:AG24"/>
+    <mergeCell ref="AH24:AP24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="O25:AG25"/>
+    <mergeCell ref="AH25:AP25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="O22:AG22"/>
+    <mergeCell ref="AH22:AP22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O23:AG23"/>
+    <mergeCell ref="AH23:AP23"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O20:AG20"/>
+    <mergeCell ref="AH20:AP20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:AG21"/>
+    <mergeCell ref="AH21:AP21"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:AG18"/>
+    <mergeCell ref="AH18:AP18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:AG19"/>
+    <mergeCell ref="AH19:AP19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="O16:AG16"/>
+    <mergeCell ref="AH16:AP16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="O17:AG17"/>
+    <mergeCell ref="AH17:AP17"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="O14:AG14"/>
+    <mergeCell ref="AH14:AP14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="O15:AG15"/>
+    <mergeCell ref="AH15:AP15"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:AG12"/>
+    <mergeCell ref="AH12:AP12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:AG13"/>
+    <mergeCell ref="AH13:AP13"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="O10:AG10"/>
+    <mergeCell ref="AH10:AP10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:AG11"/>
+    <mergeCell ref="AH11:AP11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="O8:AG8"/>
+    <mergeCell ref="AH8:AP8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:AG9"/>
+    <mergeCell ref="AH9:AP9"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="O6:AG6"/>
+    <mergeCell ref="AH6:AP6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:AG7"/>
+    <mergeCell ref="AH7:AP7"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:AG4"/>
+    <mergeCell ref="AH4:AP4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:AG5"/>
+    <mergeCell ref="AH5:AP5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4208,22 +4215,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="46" customWidth="1"/>
-    <col min="2" max="6" width="9" style="46"/>
-    <col min="7" max="7" width="18.5" style="46" customWidth="1"/>
-    <col min="8" max="15" width="9" style="46" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="14.125" style="19" customWidth="1"/>
+    <col min="2" max="6" width="9" style="19"/>
+    <col min="7" max="7" width="18.5" style="19" customWidth="1"/>
+    <col min="8" max="15" width="9" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12" thickBot="1"/>
-    <row r="3" spans="1:4" ht="34.5" thickBot="1">
+    <row r="2" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4231,7 +4238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23.25" thickBot="1">
+    <row r="4" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.25" thickBot="1">
+    <row r="5" spans="1:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4247,7 +4254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1">
+    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4255,8 +4262,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12" thickBot="1"/>
-    <row r="8" spans="1:4" ht="12" thickBot="1">
+    <row r="7" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -4264,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12" thickBot="1">
+    <row r="9" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -4272,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12" thickBot="1">
+    <row r="10" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12" thickBot="1">
+    <row r="11" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12" thickBot="1">
+    <row r="12" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12" thickBot="1">
+    <row r="13" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4304,41 +4311,41 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D16" s="4"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12" thickBot="1">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12" thickBot="1">
+    <row r="23" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -4361,7 +4368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1">
+    <row r="24" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
@@ -4385,12 +4392,12 @@
         <v>1.1426000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12" thickBot="1">
+    <row r="27" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12" thickBot="1">
+    <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>47</v>
       </c>
@@ -4437,327 +4444,327 @@
         <v>1.6719999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="48" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="H34" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="46" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="46" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="46" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="46" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="46" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="46" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="46" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="H50" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="H51" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="46" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="46" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="46" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="46" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="46" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="46" t="s">
+      <c r="H56" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="46" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="46" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="46" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="46" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="46" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="46" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="46" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="46" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="46" t="s">
+      <c r="H65" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="46" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="46" t="s">
+      <c r="H66" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="46" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="46" t="s">
+      <c r="H67" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="46" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H69" s="46" t="s">
+      <c r="H69" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="46" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="46" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H71" s="46" t="s">
+      <c r="H71" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="46" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="H72" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="46" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H73" s="46" t="s">
+      <c r="H73" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="46" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H74" s="46" t="s">
+      <c r="H74" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="46" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H75" s="46" t="s">
+      <c r="H75" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="46" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H76" s="46" t="s">
+      <c r="H76" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="46" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H77" s="46" t="s">
+      <c r="H77" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="46" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="46" t="s">
+      <c r="H78" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4774,288 +4781,288 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="48" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A22" s="46" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -5077,10 +5084,10 @@
       <c r="G23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" thickBot="1">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5088,34 +5095,34 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A26" s="46" t="s">
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -5137,10 +5144,10 @@
       <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" thickBot="1">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -5148,134 +5155,134 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="48" t="s">
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="46"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="46" t="s">
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I35" s="46"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
